--- a/historical/POLICYBZR.xlsx
+++ b/historical/POLICYBZR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -426,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O212"/>
+  <dimension ref="A1:O213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10396,6 +10396,53 @@
         <v>0.5078</v>
       </c>
     </row>
+    <row r="213" spans="1:15">
+      <c r="A213" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213">
+        <v>514</v>
+      </c>
+      <c r="E213">
+        <v>516.95</v>
+      </c>
+      <c r="F213">
+        <v>523.45</v>
+      </c>
+      <c r="G213">
+        <v>510.55</v>
+      </c>
+      <c r="H213">
+        <v>511</v>
+      </c>
+      <c r="I213">
+        <v>511.35</v>
+      </c>
+      <c r="J213">
+        <v>515.4400000000001</v>
+      </c>
+      <c r="K213">
+        <v>506662</v>
+      </c>
+      <c r="L213">
+        <v>26115328460000</v>
+      </c>
+      <c r="M213">
+        <v>20047</v>
+      </c>
+      <c r="N213">
+        <v>220581</v>
+      </c>
+      <c r="O213">
+        <v>0.4354</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
